--- a/server/LISTAS/mi/PASADOR BOLT.xlsx
+++ b/server/LISTAS/mi/PASADOR BOLT.xlsx
@@ -786,7 +786,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="n">
-        <v>45289</v>
+        <v>45302</v>
       </c>
       <c r="E1" s="6" t="n"/>
     </row>
@@ -1001,19 +1001,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B31:C31"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/PASADOR BOLT.xlsx
+++ b/server/LISTAS/mi/PASADOR BOLT.xlsx
@@ -786,7 +786,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="n">
-        <v>45302</v>
+        <v>45306</v>
       </c>
       <c r="E1" s="6" t="n"/>
     </row>
@@ -1001,19 +1001,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/PASADOR BOLT.xlsx
+++ b/server/LISTAS/mi/PASADOR BOLT.xlsx
@@ -786,7 +786,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="E1" s="6" t="n"/>
     </row>

--- a/server/LISTAS/mi/PASADOR BOLT.xlsx
+++ b/server/LISTAS/mi/PASADOR BOLT.xlsx
@@ -786,7 +786,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="E1" s="6" t="n"/>
     </row>
@@ -866,7 +866,7 @@
       </c>
       <c r="C28" s="28" t="n"/>
       <c r="D28" s="16" t="n">
-        <v>534.582</v>
+        <v>1053.098</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="1" s="1">
@@ -882,7 +882,7 @@
       </c>
       <c r="C29" s="28" t="n"/>
       <c r="D29" s="15" t="n">
-        <v>552.874</v>
+        <v>1089.132</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="1" s="1">
@@ -898,7 +898,7 @@
       </c>
       <c r="C30" s="28" t="n"/>
       <c r="D30" s="16" t="n">
-        <v>562.708</v>
+        <v>1108.506</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="1" s="1">
@@ -914,7 +914,7 @@
       </c>
       <c r="C31" s="28" t="n"/>
       <c r="D31" s="16" t="n">
-        <v>579.591</v>
+        <v>1141.764</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="1" s="1">
@@ -930,7 +930,7 @@
       </c>
       <c r="C32" s="28" t="n"/>
       <c r="D32" s="16" t="n">
-        <v>830.009</v>
+        <v>1635.074</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="1" s="1">
@@ -946,7 +946,7 @@
       </c>
       <c r="C33" s="28" t="n"/>
       <c r="D33" s="15" t="n">
-        <v>800.441</v>
+        <v>1576.826</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="1" s="1">
@@ -962,7 +962,7 @@
       </c>
       <c r="C34" s="28" t="n"/>
       <c r="D34" s="16" t="n">
-        <v>1118.395</v>
+        <v>2203.18</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="1" s="1">
@@ -978,7 +978,7 @@
       </c>
       <c r="C35" s="28" t="n"/>
       <c r="D35" s="15" t="n">
-        <v>1147.937</v>
+        <v>2261.376</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="1" s="1">
@@ -1001,19 +1001,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B31:C31"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/PASADOR BOLT.xlsx
+++ b/server/LISTAS/mi/PASADOR BOLT.xlsx
@@ -786,7 +786,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="E1" s="6" t="n"/>
     </row>

--- a/server/LISTAS/mi/PASADOR BOLT.xlsx
+++ b/server/LISTAS/mi/PASADOR BOLT.xlsx
@@ -786,7 +786,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="n">
-        <v>45310</v>
+        <v>45311</v>
       </c>
       <c r="E1" s="6" t="n"/>
     </row>
@@ -866,7 +866,7 @@
       </c>
       <c r="C28" s="28" t="n"/>
       <c r="D28" s="16" t="n">
-        <v>1053.098</v>
+        <v>534.582</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="1" s="1">
@@ -882,7 +882,7 @@
       </c>
       <c r="C29" s="28" t="n"/>
       <c r="D29" s="15" t="n">
-        <v>1089.132</v>
+        <v>552.874</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="1" s="1">
@@ -898,7 +898,7 @@
       </c>
       <c r="C30" s="28" t="n"/>
       <c r="D30" s="16" t="n">
-        <v>1108.506</v>
+        <v>562.708</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="1" s="1">
@@ -914,7 +914,7 @@
       </c>
       <c r="C31" s="28" t="n"/>
       <c r="D31" s="16" t="n">
-        <v>1141.764</v>
+        <v>579.591</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="1" s="1">
@@ -930,7 +930,7 @@
       </c>
       <c r="C32" s="28" t="n"/>
       <c r="D32" s="16" t="n">
-        <v>1635.074</v>
+        <v>830.009</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="1" s="1">
@@ -946,7 +946,7 @@
       </c>
       <c r="C33" s="28" t="n"/>
       <c r="D33" s="15" t="n">
-        <v>1576.826</v>
+        <v>800.441</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="1" s="1">
@@ -962,7 +962,7 @@
       </c>
       <c r="C34" s="28" t="n"/>
       <c r="D34" s="16" t="n">
-        <v>2203.18</v>
+        <v>1118.395</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="1" s="1">
@@ -978,7 +978,7 @@
       </c>
       <c r="C35" s="28" t="n"/>
       <c r="D35" s="15" t="n">
-        <v>2261.376</v>
+        <v>1147.937</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="1" s="1">
@@ -1001,19 +1001,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/PASADOR BOLT.xlsx
+++ b/server/LISTAS/mi/PASADOR BOLT.xlsx
@@ -786,7 +786,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="E1" s="6" t="n"/>
     </row>
@@ -1001,19 +1001,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B31:C31"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/PASADOR BOLT.xlsx
+++ b/server/LISTAS/mi/PASADOR BOLT.xlsx
@@ -786,7 +786,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="E1" s="6" t="n"/>
     </row>
@@ -1001,19 +1001,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/PASADOR BOLT.xlsx
+++ b/server/LISTAS/mi/PASADOR BOLT.xlsx
@@ -786,7 +786,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E1" s="6" t="n"/>
     </row>
@@ -1001,19 +1001,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B31:C31"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/PASADOR BOLT.xlsx
+++ b/server/LISTAS/mi/PASADOR BOLT.xlsx
@@ -786,7 +786,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
       <c r="E1" s="6" t="n"/>
     </row>
@@ -866,7 +866,7 @@
       </c>
       <c r="C28" s="28" t="n"/>
       <c r="D28" s="16" t="n">
-        <v>534.582</v>
+        <v>1053.098</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="1" s="1">
@@ -882,7 +882,7 @@
       </c>
       <c r="C29" s="28" t="n"/>
       <c r="D29" s="15" t="n">
-        <v>552.874</v>
+        <v>1089.132</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="1" s="1">
@@ -898,7 +898,7 @@
       </c>
       <c r="C30" s="28" t="n"/>
       <c r="D30" s="16" t="n">
-        <v>562.708</v>
+        <v>1108.506</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="1" s="1">
@@ -914,7 +914,7 @@
       </c>
       <c r="C31" s="28" t="n"/>
       <c r="D31" s="16" t="n">
-        <v>579.591</v>
+        <v>1141.764</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="1" s="1">
@@ -930,7 +930,7 @@
       </c>
       <c r="C32" s="28" t="n"/>
       <c r="D32" s="16" t="n">
-        <v>830.009</v>
+        <v>1635.074</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="1" s="1">
@@ -946,7 +946,7 @@
       </c>
       <c r="C33" s="28" t="n"/>
       <c r="D33" s="15" t="n">
-        <v>800.441</v>
+        <v>1576.826</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="1" s="1">
@@ -962,7 +962,7 @@
       </c>
       <c r="C34" s="28" t="n"/>
       <c r="D34" s="16" t="n">
-        <v>1118.395</v>
+        <v>2203.18</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="1" s="1">
@@ -978,7 +978,7 @@
       </c>
       <c r="C35" s="28" t="n"/>
       <c r="D35" s="15" t="n">
-        <v>1147.937</v>
+        <v>2261.376</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="1" s="1">
@@ -1001,19 +1001,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
